--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infinbox-my.sharepoint.com/personal/arjun_s_finbox_in/Documents/Desktop/Arjun/Projects/Dashboard/Arjun/Performance plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{C865D0FC-2183-4EA0-A5A5-930E81D638EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C118266-10BF-43C9-B61F-D099A563C5D3}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{C865D0FC-2183-4EA0-A5A5-930E81D638EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2118D18B-72D0-4518-B80D-7C3FB11F962F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A47B3923-2BCC-4D5A-A607-3E09B279499D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="127">
   <si>
     <t>EMP ID</t>
   </si>
@@ -420,198 +420,6 @@
   </si>
   <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>Subhojit Saha Saha</t>
-  </si>
-  <si>
-    <t>Kotagiri Yashwanthsai</t>
-  </si>
-  <si>
-    <t>Sujata Gursaraiya</t>
-  </si>
-  <si>
-    <t>Giridhar N K</t>
-  </si>
-  <si>
-    <t>Srikanth Mitra</t>
-  </si>
-  <si>
-    <t>Mohd Adil</t>
-  </si>
-  <si>
-    <t>Sunil Singh Tarkar</t>
-  </si>
-  <si>
-    <t>Karthik D C</t>
-  </si>
-  <si>
-    <t>Kiran Vasantha Nayak L</t>
-  </si>
-  <si>
-    <t>Naguluri Shushank Goud</t>
-  </si>
-  <si>
-    <t>Varshini Elangovan Sumathi</t>
-  </si>
-  <si>
-    <t>Alankar Kamalakar Dhuri</t>
-  </si>
-  <si>
-    <t>Nithin George</t>
-  </si>
-  <si>
-    <t>Akshat Verma</t>
-  </si>
-  <si>
-    <t>Shilpa Sethi</t>
-  </si>
-  <si>
-    <t>Pushkar Raj</t>
-  </si>
-  <si>
-    <t>Rohit D</t>
-  </si>
-  <si>
-    <t>Navya Bhatt</t>
-  </si>
-  <si>
-    <t>Akash Natarajan</t>
-  </si>
-  <si>
-    <t>Nikila Belle</t>
-  </si>
-  <si>
-    <t>Shriya Pattanayak</t>
-  </si>
-  <si>
-    <t>Arjun S</t>
-  </si>
-  <si>
-    <t>E Janani Sri</t>
-  </si>
-  <si>
-    <t>Eshwar Chandrashekhar Upadhayay</t>
-  </si>
-  <si>
-    <t>S Priyadarshini</t>
-  </si>
-  <si>
-    <t>Chaitra Nair</t>
-  </si>
-  <si>
-    <t>Aditya Agnihotri</t>
-  </si>
-  <si>
-    <t>FINBP187</t>
-  </si>
-  <si>
-    <t>FINBP325</t>
-  </si>
-  <si>
-    <t>FINBP333</t>
-  </si>
-  <si>
-    <t>FINBP521</t>
-  </si>
-  <si>
-    <t>FINBP529</t>
-  </si>
-  <si>
-    <t>FINBP498</t>
-  </si>
-  <si>
-    <t>FINBP491</t>
-  </si>
-  <si>
-    <t>FINBP472</t>
-  </si>
-  <si>
-    <t>FINBP470</t>
-  </si>
-  <si>
-    <t>FINBP522</t>
-  </si>
-  <si>
-    <t>FINBP530</t>
-  </si>
-  <si>
-    <t>FINBP532</t>
-  </si>
-  <si>
-    <t>FINBP533</t>
-  </si>
-  <si>
-    <t>FINBP534</t>
-  </si>
-  <si>
-    <t>FINBP539</t>
-  </si>
-  <si>
-    <t>FINBP544</t>
-  </si>
-  <si>
-    <t>FINBP550</t>
-  </si>
-  <si>
-    <t>FINBP555</t>
-  </si>
-  <si>
-    <t>FINBP557</t>
-  </si>
-  <si>
-    <t>FINBP329</t>
-  </si>
-  <si>
-    <t>FINBP526</t>
-  </si>
-  <si>
-    <t>FINBP468</t>
-  </si>
-  <si>
-    <t>FINBP249</t>
-  </si>
-  <si>
-    <t>FINBP160</t>
-  </si>
-  <si>
-    <t>FINBP265</t>
-  </si>
-  <si>
-    <t>FINBP560</t>
-  </si>
-  <si>
-    <t>FINBP558</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>HR Ops</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Business Partnering</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Rahul Singh</t>
-  </si>
-  <si>
-    <t>Foram Jigar Buch</t>
-  </si>
-  <si>
-    <t>New to rate</t>
-  </si>
-  <si>
-    <t>FINBP361</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5959AA82-BD90-411C-8172-57EB13E54BC3}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1227,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>70</v>
@@ -3322,1276 +3130,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="3">
-        <v>45089</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" s="1">
-        <v>6</v>
-      </c>
-      <c r="K49" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L49" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="M49" s="1">
-        <v>7</v>
-      </c>
-      <c r="N49" s="1">
-        <v>9</v>
-      </c>
-      <c r="O49" s="1">
-        <v>7</v>
-      </c>
-      <c r="P49" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="3">
-        <v>45586</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K50" s="1">
-        <v>9</v>
-      </c>
-      <c r="L50" s="1">
-        <v>7</v>
-      </c>
-      <c r="M50" s="1">
-        <v>6</v>
-      </c>
-      <c r="N50" s="1">
-        <v>9</v>
-      </c>
-      <c r="O50" s="1">
-        <v>8</v>
-      </c>
-      <c r="P50" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="3">
-        <v>45603</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="1">
-        <v>8</v>
-      </c>
-      <c r="K51" s="1">
-        <v>6</v>
-      </c>
-      <c r="L51" s="1">
-        <v>7</v>
-      </c>
-      <c r="M51" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="N51" s="1">
-        <v>7</v>
-      </c>
-      <c r="O51" s="1">
-        <v>8</v>
-      </c>
-      <c r="P51" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="3">
-        <v>45971</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" s="1">
-        <v>8</v>
-      </c>
-      <c r="O52" s="1">
-        <v>9</v>
-      </c>
-      <c r="P52" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="3">
-        <v>45992</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="1">
-        <v>7</v>
-      </c>
-      <c r="K53" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L53" s="1">
-        <v>8</v>
-      </c>
-      <c r="M53" s="1">
-        <v>7</v>
-      </c>
-      <c r="N53" s="1">
-        <v>9</v>
-      </c>
-      <c r="O53" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="P53" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="3">
-        <v>45957</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="1">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="L54" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="M54" s="1">
-        <v>8</v>
-      </c>
-      <c r="N54" s="1">
-        <v>9</v>
-      </c>
-      <c r="O54" s="1">
-        <v>9</v>
-      </c>
-      <c r="P54" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="3">
-        <v>45936</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="1">
-        <v>8</v>
-      </c>
-      <c r="K55" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="L55" s="1">
-        <v>8</v>
-      </c>
-      <c r="M55" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N55" s="1">
-        <v>9</v>
-      </c>
-      <c r="O55" s="1">
-        <v>7</v>
-      </c>
-      <c r="P55" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="3">
-        <v>45917</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="1">
-        <v>8</v>
-      </c>
-      <c r="K56" s="1">
-        <v>6</v>
-      </c>
-      <c r="L56" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="M56" s="1">
-        <v>6</v>
-      </c>
-      <c r="N56" s="1">
-        <v>8</v>
-      </c>
-      <c r="O56" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="P56" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="3">
-        <v>45917</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="3">
-        <v>45971</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="K58" s="1">
-        <v>6</v>
-      </c>
-      <c r="L58" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="M58" s="1">
-        <v>6</v>
-      </c>
-      <c r="N58" s="1">
-        <v>7</v>
-      </c>
-      <c r="O58" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="P58" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="3">
-        <v>45994</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="3">
-        <v>45999</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="3">
-        <v>46001</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="3">
-        <v>46006</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="3">
-        <v>46008</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="3">
-        <v>46015</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="3">
-        <v>46020</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="3">
-        <v>46020</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="3">
-        <v>46022</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="3">
-        <v>46020</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="3">
-        <v>46020</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="3">
-        <v>46022</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="3">
-        <v>45600</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J71" s="1">
-        <v>7</v>
-      </c>
-      <c r="K71" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L71" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="M71" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N71" s="1">
-        <v>7</v>
-      </c>
-      <c r="O71" s="1">
-        <v>8</v>
-      </c>
-      <c r="P71" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="3">
-        <v>44748</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J72" s="1">
-        <v>8</v>
-      </c>
-      <c r="K72" s="1">
-        <v>8</v>
-      </c>
-      <c r="L72" s="1">
-        <v>8</v>
-      </c>
-      <c r="M72" s="1">
-        <v>8</v>
-      </c>
-      <c r="N72" s="1">
-        <v>8</v>
-      </c>
-      <c r="O72" s="1">
-        <v>7</v>
-      </c>
-      <c r="P72" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="3">
-        <v>45980</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J73" s="1">
-        <v>7</v>
-      </c>
-      <c r="K73" s="1">
-        <v>7</v>
-      </c>
-      <c r="L73" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="M73" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="N73" s="1">
-        <v>7</v>
-      </c>
-      <c r="O73" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="P73" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="3">
-        <v>45915</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J74" s="1">
-        <v>8</v>
-      </c>
-      <c r="K74" s="1">
-        <v>8</v>
-      </c>
-      <c r="L74" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="M74" s="1">
-        <v>8</v>
-      </c>
-      <c r="N74" s="1">
-        <v>8</v>
-      </c>
-      <c r="O74" s="1">
-        <v>7</v>
-      </c>
-      <c r="P74" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="3">
-        <v>45369</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J75" s="1">
-        <v>7</v>
-      </c>
-      <c r="K75" s="1">
-        <v>7</v>
-      </c>
-      <c r="L75" s="1">
-        <v>7</v>
-      </c>
-      <c r="M75" s="1">
-        <v>7</v>
-      </c>
-      <c r="N75" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="O75" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="P75" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="3">
-        <v>45022</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J76" s="1">
-        <v>8</v>
-      </c>
-      <c r="K76" s="1">
-        <v>7</v>
-      </c>
-      <c r="L76" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="M76" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N76" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="O76" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="P76" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="3">
-        <v>45425</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J77" s="1">
-        <v>7</v>
-      </c>
-      <c r="K77" s="1">
-        <v>7</v>
-      </c>
-      <c r="L77" s="1">
-        <v>7</v>
-      </c>
-      <c r="M77" s="1">
-        <v>7</v>
-      </c>
-      <c r="N77" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="O77" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="P77" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="3">
-        <v>46027</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="3">
-        <v>46022</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
